--- a/biology/Médecine/USNS_Comfort_(T-AH-20)/USNS_Comfort_(T-AH-20).xlsx
+++ b/biology/Médecine/USNS_Comfort_(T-AH-20)/USNS_Comfort_(T-AH-20).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le USNS Comfort (T-AH-20) est le second navire-hôpital de classe Mercy de la United States Navy. Il appartient à la marine des États-Unis.
@@ -513,10 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de son lancement le 1er février 1976, ce navire était à l'origine un pétrolier civil, construit par le chantier naval National Steel and Shipbuilding Co. de San Diego, sous le nom de SS Rose City (MA-301). Il s'agit du premier navire de la classe San Clemente.
-Après une conversion qui a duré 35 mois et coûté 208 millions de dollars, il entre en service dans la marine militaire des États-Unis comme navire-hôpital le 1er décembre 1987. Il dépend alors du Military Sealift Command[1],[2].
+Après une conversion qui a duré 35 mois et coûté 208 millions de dollars, il entre en service dans la marine militaire des États-Unis comme navire-hôpital le 1er décembre 1987. Il dépend alors du Military Sealift Command,.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En conformité avec les Conventions de Genève de 1949, l’USNS Comfort et son équipage n'ont pas pour mission de combattre. Tirer sur le Comfort est considéré comme un crime de guerre.
 La mission de l’USNS Comfort est de pourvoir des services médicaux et chirurgicaux rapides et flexibles aux forces armées des États-Unis ou à des civils lors de missions humanitaires en temps de paix, comme en cas de catastrophe naturelle.
@@ -579,10 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Opération Réponse unifiée
-Le 13 janvier 2010, l'ordre a été donné au Comfort d'aider aux efforts de secours humanitaires à la suite du tremblement de terre d'Haïti de 2010 dans le cadre de l'opération Réponse unifiée[3]. Trois jours plus tard, le 16 janvier, le Comfort quitta le port de Baltimore à destination d'Haïti. Le navire arriva à destination le 20 janvier 2010 et a commencé à fournir de l'aide médicale[4],[5].
-COVID-19
-En mars 2020, l'USNS Mercy et l'USNS Comfort, sont déployés respectivement sur la côte ouest et est des États-Unis pour fournir une aide complémentaire aux hôpitaux civils dans le cadre de l'impact de la pandémie de maladie à coronavirus de 2020 aux États-Unis[6].
+          <t>Opération Réponse unifiée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 13 janvier 2010, l'ordre a été donné au Comfort d'aider aux efforts de secours humanitaires à la suite du tremblement de terre d'Haïti de 2010 dans le cadre de l'opération Réponse unifiée. Trois jours plus tard, le 16 janvier, le Comfort quitta le port de Baltimore à destination d'Haïti. Le navire arriva à destination le 20 janvier 2010 et a commencé à fournir de l'aide médicale,.
 </t>
         </is>
       </c>
@@ -608,10 +627,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Déploiements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>COVID-19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2020, l'USNS Mercy et l'USNS Comfort, sont déployés respectivement sur la côte ouest et est des États-Unis pour fournir une aide complémentaire aux hôpitaux civils dans le cadre de l'impact de la pandémie de maladie à coronavirus de 2020 aux États-Unis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>USNS_Comfort_(T-AH-20)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/USNS_Comfort_(T-AH-20)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>En accord avec les Conventions de Genève, l'USNS Comfort ne possède aucune arme à son bord.
 Capacité d'accueil :
